--- a/data/trans_dic/P45C_R1-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0115438820636175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02731674722529934</v>
+        <v>0.02731674722529933</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01298500410855072</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01673064824970897</v>
+        <v>0.01636810988329502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00759409850923737</v>
+        <v>0.007712679769885665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005513283909849872</v>
+        <v>0.006026102246703458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01543079904517078</v>
+        <v>0.01455530077178504</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007301296675782978</v>
+        <v>0.006563598817280183</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004133623461595136</v>
+        <v>0.003704099674391245</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.007435336713233215</v>
+        <v>0.00738995701664261</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01220363453953951</v>
+        <v>0.01264638044530571</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01276762726496107</v>
+        <v>0.01327666605428116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006809105577694833</v>
+        <v>0.00719852505673372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008055929836030208</v>
+        <v>0.008107705544276353</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01595232154976225</v>
+        <v>0.01580218943914823</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04622636480865531</v>
+        <v>0.04531241236549846</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02321269777803119</v>
+        <v>0.02375739796226554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01977901455546722</v>
+        <v>0.02108526910126169</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04795708081124219</v>
+        <v>0.04545994583799989</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02266873224932824</v>
+        <v>0.02234802061549794</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01619863614781833</v>
+        <v>0.01467312277886957</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02096078367993134</v>
+        <v>0.02106472831914896</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03150005806373406</v>
+        <v>0.03437531222378085</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02675212090496366</v>
+        <v>0.02777279232807384</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01639935257965807</v>
+        <v>0.01646226878287478</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01782129114842991</v>
+        <v>0.01786337785385896</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0336658699204917</v>
+        <v>0.03374783558198769</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.006422423083467879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01039825962668374</v>
+        <v>0.01039825962668373</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01438268962927105</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006748675750662118</v>
+        <v>0.006926512982935926</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004150658117415327</v>
+        <v>0.004090543819034153</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002498386023323561</v>
+        <v>0.003029588000474996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004664375278525234</v>
+        <v>0.005087299992095494</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007617675179468046</v>
+        <v>0.00872191772734808</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01561316907563742</v>
+        <v>0.01539904096511733</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004303487907427998</v>
+        <v>0.004759668086174126</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004898874918392915</v>
+        <v>0.004992175286977649</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009099517088453662</v>
+        <v>0.009327220856079652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01203353306689012</v>
+        <v>0.01198493358065078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00480029798003153</v>
+        <v>0.004674208834295599</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.00594819061366939</v>
+        <v>0.006263059226005078</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02105151702098553</v>
+        <v>0.02135334349284781</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01771175066611791</v>
+        <v>0.0161714532469392</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01351269762213403</v>
+        <v>0.01345204959140422</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01984760086808456</v>
+        <v>0.01933738949363283</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02344140131815274</v>
+        <v>0.02364710713750498</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03514298525803084</v>
+        <v>0.03382046657749926</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01675531391817867</v>
+        <v>0.01782692130938195</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01844876719060191</v>
+        <v>0.01781113748166652</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01905154177682657</v>
+        <v>0.01881866988154323</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02347163317837457</v>
+        <v>0.02430935472075773</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01299636167430866</v>
+        <v>0.01307688498392121</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01566900879490261</v>
+        <v>0.01556774165099609</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01029275660379995</v>
+        <v>0.009874332193407602</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003671704452325894</v>
+        <v>0.003508210939411604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002288346670729449</v>
+        <v>0.002307433703732706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005832309179898817</v>
+        <v>0.006630415354115039</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009944620483934788</v>
+        <v>0.008989240472608956</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007617860382747765</v>
+        <v>0.007237722794199542</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00372102437048628</v>
+        <v>0.003817511830977333</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007614384234318976</v>
+        <v>0.007162613420864064</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01125662547984063</v>
+        <v>0.01123771952047089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007178082717923411</v>
+        <v>0.007076005431444322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004247917222808903</v>
+        <v>0.004287215594391338</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.008454257113356536</v>
+        <v>0.008423324970451701</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02733940476657257</v>
+        <v>0.02734490148726554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01860690363375517</v>
+        <v>0.01639578720169814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01722293398815244</v>
+        <v>0.0168482298211606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02500431978740626</v>
+        <v>0.02472700830479773</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02547687276215175</v>
+        <v>0.02515729405161118</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02449715491477716</v>
+        <v>0.02392028734228945</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01853370721332027</v>
+        <v>0.01874006956716692</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02006840131688151</v>
+        <v>0.02013656027709899</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02342160710553141</v>
+        <v>0.02284258071759579</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01764319137900996</v>
+        <v>0.01727584670710311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01446058422251727</v>
+        <v>0.01399822220023951</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01903322748672782</v>
+        <v>0.01919312528428701</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01391177060945307</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02246400255825476</v>
+        <v>0.02246400255825477</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02180866192060201</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003859515218092271</v>
+        <v>0.004651871095775953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01477388521959854</v>
+        <v>0.01556348157006295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005455636401578519</v>
+        <v>0.005611572085076589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01314316422597671</v>
+        <v>0.013913729503102</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0171946128331471</v>
+        <v>0.01736916331890605</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00915392443794423</v>
+        <v>0.009081951225791828</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.00591463503797633</v>
+        <v>0.005936798987400158</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01415789028555304</v>
+        <v>0.01406298196252358</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01285986964236887</v>
+        <v>0.0138091403532718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0149365197951032</v>
+        <v>0.01457802470236892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007805905413339364</v>
+        <v>0.00707064496940485</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01567104573704514</v>
+        <v>0.01604728416613552</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02699069622051049</v>
+        <v>0.02880918130319347</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04660765741647663</v>
+        <v>0.04622906911154488</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02664124884023846</v>
+        <v>0.02757113604056156</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0350741176124159</v>
+        <v>0.03806604395195646</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05787018531028372</v>
+        <v>0.0593606249092457</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03467437334448581</v>
+        <v>0.03425740210481087</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02838122280037867</v>
+        <v>0.02682091303991525</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03405513741121419</v>
+        <v>0.03443442026269779</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03441856571726261</v>
+        <v>0.03660156355399655</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03489603740715334</v>
+        <v>0.03565591609077421</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02306537289130531</v>
+        <v>0.02204947553507041</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03101645965968816</v>
+        <v>0.03204073149568221</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01236710531839168</v>
+        <v>0.01254694518365922</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00947691889210347</v>
+        <v>0.009661249916424305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006356684763559477</v>
+        <v>0.006231377053791507</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01263679323710418</v>
+        <v>0.01253422009748479</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01231703586914209</v>
+        <v>0.01261880551049998</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01202222834653251</v>
+        <v>0.01194653915647426</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.00806594036228022</v>
+        <v>0.007995153699123011</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01187360268641688</v>
+        <v>0.01198020671461317</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01375668091317719</v>
+        <v>0.01375757953992044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0117791947331268</v>
+        <v>0.01194836631751235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007825747060176146</v>
+        <v>0.007689177982271604</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01330674328023778</v>
+        <v>0.01347504411344353</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02232387609060798</v>
+        <v>0.02217142816534965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01726525294691848</v>
+        <v>0.01744551300313646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01320036670458614</v>
+        <v>0.01315188807888577</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02241241324940763</v>
+        <v>0.02262597562791319</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02125820850229034</v>
+        <v>0.0218284060452124</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01995454912318147</v>
+        <v>0.02037598237223059</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01483519986911753</v>
+        <v>0.01499210364316792</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01931342023297391</v>
+        <v>0.01959350121662264</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01998947031766074</v>
+        <v>0.02031184268295564</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01769703816758648</v>
+        <v>0.01782862427961111</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01306719530091914</v>
+        <v>0.01306648404446225</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01982153152045063</v>
+        <v>0.01982828927721514</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9773</v>
+        <v>9561</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7863</v>
+        <v>7985</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6168</v>
+        <v>6742</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7675</v>
+        <v>7240</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6725</v>
+        <v>6045</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4577</v>
+        <v>4102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9273</v>
+        <v>9216</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7591</v>
+        <v>7867</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19217</v>
+        <v>19983</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14590</v>
+        <v>15424</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19059</v>
+        <v>19182</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>17858</v>
+        <v>17690</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27003</v>
+        <v>26469</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24033</v>
+        <v>24597</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22127</v>
+        <v>23589</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23853</v>
+        <v>22611</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20878</v>
+        <v>20583</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17938</v>
+        <v>16248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26141</v>
+        <v>26271</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19595</v>
+        <v>21384</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40266</v>
+        <v>41802</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>35139</v>
+        <v>35274</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42163</v>
+        <v>42263</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37687</v>
+        <v>37779</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7268</v>
+        <v>7460</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4040</v>
+        <v>3981</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2263</v>
+        <v>2744</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4458</v>
+        <v>4863</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8056</v>
+        <v>9224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16889</v>
+        <v>16657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4316</v>
+        <v>4774</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5460</v>
+        <v>5564</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19423</v>
+        <v>19909</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>24728</v>
+        <v>24629</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9162</v>
+        <v>8921</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12315</v>
+        <v>12967</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22673</v>
+        <v>22998</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17238</v>
+        <v>15739</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12238</v>
+        <v>12183</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18971</v>
+        <v>18484</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24790</v>
+        <v>25008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38014</v>
+        <v>36584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16805</v>
+        <v>17879</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20563</v>
+        <v>19852</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>40666</v>
+        <v>40169</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>48233</v>
+        <v>49955</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>24805</v>
+        <v>24959</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32442</v>
+        <v>32232</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11534</v>
+        <v>11065</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3216</v>
+        <v>3073</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1868</v>
+        <v>1884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6093</v>
+        <v>6926</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9866</v>
+        <v>8918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6623</v>
+        <v>6292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2850</v>
+        <v>2924</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7977</v>
+        <v>7504</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>23781</v>
+        <v>23741</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12527</v>
+        <v>12349</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6722</v>
+        <v>6784</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17689</v>
+        <v>17624</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30636</v>
+        <v>30642</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16297</v>
+        <v>14360</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14061</v>
+        <v>13755</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26120</v>
+        <v>25831</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25274</v>
+        <v>24957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21297</v>
+        <v>20796</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14196</v>
+        <v>14354</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21025</v>
+        <v>21096</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49481</v>
+        <v>48258</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30791</v>
+        <v>30150</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22882</v>
+        <v>22151</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39823</v>
+        <v>40157</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1704</v>
+        <v>2053</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7342</v>
+        <v>7734</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2719</v>
+        <v>2797</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12827</v>
+        <v>13579</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5780</v>
+        <v>5839</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4114</v>
+        <v>4082</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2865</v>
+        <v>2876</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12839</v>
+        <v>12752</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10000</v>
+        <v>10738</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14136</v>
+        <v>13796</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7671</v>
+        <v>6949</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>29505</v>
+        <v>30213</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11914</v>
+        <v>12717</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23162</v>
+        <v>22974</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13277</v>
+        <v>13741</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34230</v>
+        <v>37150</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19454</v>
+        <v>19955</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15583</v>
+        <v>15396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13748</v>
+        <v>12992</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>30882</v>
+        <v>31226</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26764</v>
+        <v>28461</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33025</v>
+        <v>33744</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>22668</v>
+        <v>21670</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>58396</v>
+        <v>60324</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39861</v>
+        <v>40441</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32045</v>
+        <v>32669</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21226</v>
+        <v>20808</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>43898</v>
+        <v>43541</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>40730</v>
+        <v>41727</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>42172</v>
+        <v>41907</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28234</v>
+        <v>27987</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>43827</v>
+        <v>44220</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>89830</v>
+        <v>89836</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>81150</v>
+        <v>82315</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>53526</v>
+        <v>52592</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>95342</v>
+        <v>96547</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>71953</v>
+        <v>71462</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>58381</v>
+        <v>58991</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44079</v>
+        <v>43917</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>77856</v>
+        <v>78598</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>70296</v>
+        <v>72182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>69997</v>
+        <v>71476</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>51930</v>
+        <v>52479</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>71288</v>
+        <v>72322</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>130530</v>
+        <v>132635</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>121919</v>
+        <v>122826</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>89375</v>
+        <v>89371</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>142019</v>
+        <v>142068</v>
       </c>
     </row>
     <row r="24">
